--- a/EFS/cap08-BasesDeDatos/BD01/IPT_ACRM_BD1Borrador_150317.xlsx
+++ b/EFS/cap08-BasesDeDatos/BD01/IPT_ACRM_BD1Borrador_150317.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="11355" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="11355" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Company_Number</t>
   </si>
@@ -130,13 +130,22 @@
     <t>Nombre de la compañía</t>
   </si>
   <si>
-    <t>ID de la compañía en CRM</t>
-  </si>
-  <si>
     <t>KAM</t>
   </si>
   <si>
     <t>Siglas del vende</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID de la compañía en CRM (no tiene que coincidir con SAP). Resolución de conflictos </t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Libre (pero uno por país)</t>
   </si>
 </sst>
 </file>
@@ -498,16 +507,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -529,10 +539,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -542,13 +555,19 @@
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -705,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
